--- a/StructureDefinition-profile-Endpoint.xlsx
+++ b/StructureDefinition-profile-Endpoint.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6825675-06:00</t>
+    <t>2026-02-09T22:05:43.0985026-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,33 +413,98 @@
     <t>Endpoint.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Endpoint.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.description|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Endpoint.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The description of the endpoint and what it is for (typically used as supplemental information in an endpoint directory describing its usage/purpose).</t>
+  </si>
+  <si>
+    <t>Element `Endpoint.description` is will have a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Endpoint.extension:environmentType</t>
+  </si>
+  <si>
+    <t>environmentType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.environmentType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Endpoint.environmentType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The type of environment(s) exposed at this endpoint (dev, prod, test, etc.).</t>
+  </si>
+  <si>
+    <t>Element `Endpoint.environmentType` is will have a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
+  </si>
+  <si>
+    <t>Endpoint.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.payload.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Endpoint.payload.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The payload type describes the acceptable content that can be communicated on the endpoint.</t>
+  </si>
+  <si>
+    <t>Element `Endpoint.payload.type` is will have a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
+  </si>
+  <si>
+    <t>Endpoint.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Endpoint.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -447,6 +512,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -537,23 +605,16 @@
     <t>Endpoint.connectionType.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Endpoint.connectionType.extension:connectionType</t>
+  </si>
+  <si>
+    <t>connectionType</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.connectionType|0.0.1-snapshot-3}
@@ -563,7 +624,7 @@
     <t>Cross-version extension for Endpoint.connectionType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>For additional connectivity details for the protocol, extensions will be used at this point, as in the XDS example. If there are multiple payload types or mimetypes they are all applicable for all connection types, and all have the same status.</t>
+    <t>Element `Endpoint.connectionType` is mapped to FHIR R4 element `Endpoint.connectionType`.</t>
   </si>
   <si>
     <t>Endpoint.connectionType.system</t>
@@ -731,9 +792,6 @@
   </si>
   <si>
     <t>The type of content that may be used at this endpoint (e.g. XDS Discharge summaries)</t>
-  </si>
-  <si>
-    <t>The payload type describes the acceptable content that can be communicated on the endpoint.</t>
   </si>
   <si>
     <t>The payloadFormat describes the serialization format of the data, where the payloadType indicates the specific document/schema that is being transferred; e.g. DischargeSummary or CarePlan.</t>
@@ -1098,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1107,9 +1165,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.1875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1117,7 +1175,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2023,7 +2081,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2042,17 +2100,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2089,16 +2145,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -2116,7 +2170,7 @@
         <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2127,43 +2181,43 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2211,7 +2265,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2220,13 +2274,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2234,12 +2288,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2257,18 +2313,20 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2317,7 +2375,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2326,56 +2384,58 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2401,13 +2461,13 @@
         <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2425,67 +2485,69 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2509,11 +2571,13 @@
         <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
@@ -2531,25 +2595,25 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2568,7 +2632,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2577,7 +2641,7 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>163</v>
@@ -2637,25 +2701,25 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
@@ -2674,19 +2738,19 @@
         <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>168</v>
@@ -2694,7 +2758,9 @@
       <c r="M15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2719,57 +2785,57 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2780,7 +2846,7 @@
         <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2789,19 +2855,19 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2827,13 +2893,11 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -2851,33 +2915,33 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2897,23 +2961,19 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -2961,7 +3021,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2973,10 +3033,10 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -2984,10 +3044,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2995,10 +3055,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3007,20 +3067,18 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3057,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3092,21 +3150,23 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3115,21 +3175,21 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3177,22 +3237,22 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3226,7 +3286,7 @@
         <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>197</v>
@@ -3234,9 +3294,11 @@
       <c r="M20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3285,7 +3347,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3300,7 +3362,7 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3308,10 +3370,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3334,7 +3396,7 @@
         <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>204</v>
@@ -3345,9 +3407,7 @@
       <c r="N21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3395,7 +3455,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3410,7 +3470,7 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3418,10 +3478,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3444,16 +3504,18 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -3501,7 +3563,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3516,18 +3578,18 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3550,7 +3612,7 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>216</v>
@@ -3558,10 +3620,10 @@
       <c r="M23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3609,7 +3671,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3624,7 +3686,7 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3632,10 +3694,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3646,7 +3708,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3655,19 +3717,23 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -3715,13 +3781,13 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
@@ -3730,7 +3796,7 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -3738,10 +3804,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3764,13 +3830,13 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3821,7 +3887,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3839,15 +3905,15 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3855,10 +3921,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -3870,16 +3936,16 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3905,35 +3971,37 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y26" s="2"/>
-      <c r="Z26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
@@ -3950,10 +4018,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3973,20 +4041,18 @@
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4011,13 +4077,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4035,7 +4101,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4058,10 +4124,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4069,7 +4135,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -4084,17 +4150,15 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4143,10 +4207,10 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>84</v>
@@ -4161,15 +4225,15 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>75</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4177,7 +4241,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -4189,19 +4253,19 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4227,13 +4291,11 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4251,10 +4313,10 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -4266,9 +4328,333 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Endpoint.xlsx
+++ b/StructureDefinition-profile-Endpoint.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="269">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0985026-06:00</t>
+    <t>2026-02-17T14:42:26.7995167-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
     <t>The description of the endpoint and what it is for (typically used as supplemental information in an endpoint directory describing its usage/purpose).</t>
   </si>
   <si>
-    <t>Element `Endpoint.description` is will have a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
+    <t>Element `Endpoint.description` has a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -476,26 +476,26 @@
     <t>The type of environment(s) exposed at this endpoint (dev, prod, test, etc.).</t>
   </si>
   <si>
-    <t>Element `Endpoint.environmentType` is will have a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
-  </si>
-  <si>
-    <t>Endpoint.extension:type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.payload.type|0.0.1-snapshot-3}
+    <t>Element `Endpoint.environmentType` has a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
+  </si>
+  <si>
+    <t>Endpoint.extension:payload</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.payload|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Endpoint.payload.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The payload type describes the acceptable content that can be communicated on the endpoint.</t>
-  </si>
-  <si>
-    <t>Element `Endpoint.payload.type` is will have a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
+    <t>Cross-version extension for Endpoint.payload from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The set of payloads that are provided/available at this endpoint.</t>
+  </si>
+  <si>
+    <t>Element `Endpoint.payload` has is mapped to FHIR R4 element `Endpoint`, but has no comparisons.</t>
   </si>
   <si>
     <t>Endpoint.modifierExtension</t>
@@ -624,7 +624,7 @@
     <t>Cross-version extension for Endpoint.connectionType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Endpoint.connectionType` is mapped to FHIR R4 element `Endpoint.connectionType`.</t>
+    <t>Element `Endpoint.connectionType` has is mapped to FHIR R4 element `Endpoint.connectionType`, but has no comparisons.</t>
   </si>
   <si>
     <t>Endpoint.connectionType.system</t>
@@ -792,6 +792,9 @@
   </si>
   <si>
     <t>The type of content that may be used at this endpoint (e.g. XDS Discharge summaries)</t>
+  </si>
+  <si>
+    <t>The payload type describes the acceptable content that can be communicated on the endpoint.</t>
   </si>
   <si>
     <t>The payloadFormat describes the serialization format of the data, where the payloadType indicates the specific document/schema that is being transferred; e.g. DischargeSummary or CarePlan.</t>
@@ -4262,10 +4265,10 @@
         <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4291,11 +4294,11 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4336,10 +4339,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4365,13 +4368,13 @@
         <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4400,10 +4403,10 @@
         <v>171</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -4421,7 +4424,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4444,10 +4447,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4470,16 +4473,16 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4529,7 +4532,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>84</v>
@@ -4552,10 +4555,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4581,13 +4584,13 @@
         <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4637,7 +4640,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-profile-Endpoint.xlsx
+++ b/StructureDefinition-profile-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7995167-06:00</t>
+    <t>2026-02-20T11:59:20.7987595-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Endpoint|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Endpoint</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.description|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.description}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>environmentType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.environmentType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.environmentType}
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>payload</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.payload|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.payload}
 </t>
   </si>
   <si>
@@ -617,7 +617,7 @@
     <t>connectionType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.connectionType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.connectionType}
 </t>
   </si>
   <si>
@@ -1178,7 +1178,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.6953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Endpoint.xlsx
+++ b/StructureDefinition-profile-Endpoint.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="268">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7987595-06:00</t>
+    <t>2026-02-21T13:36:54.2138096-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Endpoint</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Endpoint|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.description|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -466,7 +466,7 @@
     <t>environmentType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.environmentType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.environmentType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -479,23 +479,23 @@
     <t>Element `Endpoint.environmentType` has a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
   </si>
   <si>
-    <t>Endpoint.extension:payload</t>
-  </si>
-  <si>
-    <t>payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.payload}
+    <t>Endpoint.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.payload.type|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Endpoint.payload from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The set of payloads that are provided/available at this endpoint.</t>
-  </si>
-  <si>
-    <t>Element `Endpoint.payload` has is mapped to FHIR R4 element `Endpoint`, but has no comparisons.</t>
+    <t>Cross-version extension for Endpoint.payload.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The payload type describes the acceptable content that can be communicated on the endpoint.</t>
+  </si>
+  <si>
+    <t>Element `Endpoint.payload.type` has a context of Endpoint based on following the parent source element upwards and mapping to `Endpoint`.</t>
   </si>
   <si>
     <t>Endpoint.modifierExtension</t>
@@ -617,14 +617,14 @@
     <t>connectionType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.connectionType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Endpoint.connectionType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Endpoint.connectionType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Endpoint.connectionType` has is mapped to FHIR R4 element `Endpoint.connectionType`, but has no comparisons.</t>
+    <t>Element `Endpoint.connectionType` is mapped to FHIR R4 element `Endpoint.connectionType` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Endpoint.connectionType.system</t>
@@ -792,9 +792,6 @@
   </si>
   <si>
     <t>The type of content that may be used at this endpoint (e.g. XDS Discharge summaries)</t>
-  </si>
-  <si>
-    <t>The payload type describes the acceptable content that can be communicated on the endpoint.</t>
   </si>
   <si>
     <t>The payloadFormat describes the serialization format of the data, where the payloadType indicates the specific document/schema that is being transferred; e.g. DischargeSummary or CarePlan.</t>
@@ -1178,7 +1175,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4265,10 +4262,10 @@
         <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4294,11 +4291,11 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
@@ -4339,10 +4336,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4368,13 +4365,13 @@
         <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4403,11 +4400,11 @@
         <v>171</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4424,7 +4421,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4447,10 +4444,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4473,16 +4470,16 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4532,7 +4529,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>84</v>
@@ -4555,10 +4552,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4584,13 +4581,13 @@
         <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4640,7 +4637,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
